--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -641,13 +641,13 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -747,17 +747,17 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -853,16 +853,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>16</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1280,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1489,16 +1489,16 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1704,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
         <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -1769,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>42</v>
@@ -2090,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2190,7 +2190,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
@@ -2340,22 +2340,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -2455,13 +2455,13 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -2508,13 +2508,13 @@
         <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2658,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
@@ -2817,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2873,16 +2873,16 @@
         <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
         <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2923,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
         <v>22</v>
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3197,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3250,16 +3250,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3294,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -3356,16 +3356,16 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -3409,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3462,10 +3462,10 @@
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3515,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3556,10 +3556,10 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -3568,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -3621,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3665,16 +3665,16 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3683,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3736,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3780,10 +3780,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>27</v>
+      </c>
+      <c r="G64" t="n">
         <v>5</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>29</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3886,7 +3886,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3930,25 +3930,25 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
@@ -3992,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4045,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4089,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>24</v>
@@ -4107,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4142,19 +4142,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -4204,19 +4204,19 @@
         <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
@@ -4257,10 +4257,10 @@
         <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4357,25 +4357,25 @@
         <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4407,16 +4407,16 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -4425,10 +4425,10 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4460,16 +4460,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4522,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -4534,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
+        <v>27</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
         <v>28</v>
-      </c>
-      <c r="D78" t="n">
-        <v>5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>29</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4584,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4619,16 +4619,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4690,13 +4690,13 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4734,10 +4734,10 @@
         <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
         <v>15</v>
@@ -4778,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4796,13 +4796,13 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4840,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
         <v>15</v>
@@ -4884,19 +4884,19 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -4905,10 +4905,10 @@
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L84" t="n">
         <v>18</v>
@@ -4934,10 +4934,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4946,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4958,13 +4958,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4987,19 +4987,19 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" t="n">
+        <v>33</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
         <v>35</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>10</v>
-      </c>
-      <c r="F86" t="n">
-        <v>38</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -5011,13 +5011,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5040,19 +5040,19 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n">
         <v>9</v>
@@ -5064,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5093,19 +5093,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5117,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K88" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5146,19 +5146,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5170,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5199,10 +5199,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5214,7 +5214,7 @@
         <v>23</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -5226,13 +5226,13 @@
         <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>21</v>
@@ -5276,16 +5276,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L91" t="n">
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5305,10 +5305,10 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5317,7 +5317,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
@@ -5332,13 +5332,13 @@
         <v>27</v>
       </c>
       <c r="K92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L92" t="n">
         <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
@@ -5370,10 +5370,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -5382,16 +5382,16 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L93" t="n">
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5411,7 +5411,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
         <v>24</v>
@@ -5423,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5435,16 +5435,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
         <v>22</v>
@@ -5476,7 +5476,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5488,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5517,22 +5517,22 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -5541,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L96" t="n">
         <v>12</v>
       </c>
       <c r="M96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5570,19 +5570,19 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5594,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L97" t="n">
         <v>11</v>
       </c>
       <c r="M97" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5623,19 +5623,19 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5647,16 +5647,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
+        <v>19</v>
+      </c>
+      <c r="K98" t="n">
         <v>20</v>
-      </c>
-      <c r="K98" t="n">
-        <v>21</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5676,19 +5676,19 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -5703,13 +5703,13 @@
         <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>70</v>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -5741,7 +5741,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5762,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5782,10 +5782,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5794,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K101" t="n">
         <v>18</v>
@@ -5815,7 +5815,7 @@
         <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5835,22 +5835,22 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -5865,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C103" t="n">
         <v>19</v>
@@ -5897,10 +5897,10 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5909,22 +5909,22 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K103" t="n">
         <v>18</v>
       </c>
       <c r="L103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -5941,7 +5941,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
@@ -5950,13 +5950,13 @@
         <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -5965,19 +5965,19 @@
         <v>4</v>
       </c>
       <c r="J104" t="n">
+        <v>17</v>
+      </c>
+      <c r="K104" t="n">
         <v>18</v>
-      </c>
-      <c r="K104" t="n">
-        <v>19</v>
       </c>
       <c r="L104" t="n">
         <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>58</v>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -6006,7 +6006,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6018,7 +6018,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K105" t="n">
         <v>19</v>
@@ -6047,7 +6047,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -6068,19 +6068,19 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
         <v>2</v>
@@ -6100,19 +6100,19 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -6124,16 +6124,16 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="n">
         <v>11</v>
       </c>
       <c r="M107" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6145,7 +6145,7 @@
         <v>10</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -6153,40 +6153,40 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K108" t="n">
         <v>28</v>
       </c>
       <c r="L108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -6206,10 +6206,10 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C109" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
@@ -6218,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -6227,22 +6227,22 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="Q109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -6259,19 +6259,19 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -6283,16 +6283,16 @@
         <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K110" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N110" t="n">
         <v>6</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -6315,28 +6315,28 @@
         <v>85</v>
       </c>
       <c r="C111" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
         <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K111" t="n">
         <v>22</v>
@@ -6345,7 +6345,7 @@
         <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6368,7 +6368,7 @@
         <v>92</v>
       </c>
       <c r="C112" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -6377,28 +6377,28 @@
         <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K112" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M112" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N112" t="n">
         <v>5</v>
@@ -6407,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -6418,10 +6418,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C113" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -6430,28 +6430,28 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L113" t="n">
         <v>13</v>
       </c>
       <c r="M113" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6471,10 +6471,10 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C114" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -6483,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6492,22 +6492,22 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K114" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C115" t="n">
         <v>28</v>
@@ -6536,7 +6536,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -6569,7 +6569,7 @@
         <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -6577,19 +6577,19 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="n">
         <v>9</v>
@@ -6601,22 +6601,22 @@
         <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L116" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
@@ -6633,16 +6633,16 @@
         <v>100</v>
       </c>
       <c r="C117" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -6657,19 +6657,19 @@
         <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
       </c>
       <c r="M117" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N117" t="n">
         <v>6</v>
       </c>
       <c r="O117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P117" t="n">
         <v>7</v>
@@ -6683,10 +6683,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C118" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -6695,7 +6695,7 @@
         <v>16</v>
       </c>
       <c r="F118" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6704,19 +6704,19 @@
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J118" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K118" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M118" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6728,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="Q118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -6736,19 +6736,19 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6760,22 +6760,22 @@
         <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K119" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L119" t="n">
         <v>11</v>
       </c>
       <c r="M119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>59</v>
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
@@ -1757,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -1772,13 +1772,13 @@
         <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1872,10 +1872,10 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>42</v>
@@ -2087,7 +2087,7 @@
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2396,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -2508,7 +2508,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
@@ -2723,10 +2723,10 @@
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -2879,10 +2879,10 @@
         <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2973,16 +2973,16 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
         <v>30</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3197,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3238,10 +3238,10 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3259,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3294,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -3356,16 +3356,16 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -3409,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3462,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -3503,10 +3503,10 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3515,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -3568,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3612,19 +3612,19 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3665,16 +3665,16 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3683,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3736,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3780,13 +3780,13 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>22</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4048,7 +4048,7 @@
         <v>28</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>24</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>24</v>
@@ -4263,10 +4263,10 @@
         <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>14</v>
@@ -4313,7 +4313,7 @@
         <v>22</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4357,13 +4357,13 @@
         <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4428,13 +4428,13 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4510,10 +4510,10 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4522,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -4534,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4566,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>28</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>27</v>
@@ -4637,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -4681,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4690,13 +4690,13 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K81" t="n">
         <v>15</v>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K82" t="n">
         <v>14</v>
@@ -4840,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K83" t="n">
         <v>15</v>
@@ -4884,16 +4884,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
         <v>12</v>
@@ -4905,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84" t="n">
         <v>27</v>
@@ -4934,10 +4934,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4946,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4958,13 +4958,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" t="n">
         <v>33</v>
@@ -4999,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K86" t="n">
         <v>24</v>
@@ -5049,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
         <v>34</v>
@@ -5093,19 +5093,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5123,7 +5123,7 @@
         <v>21</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5146,19 +5146,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5170,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5199,10 +5199,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5211,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5252,19 +5252,19 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K91" t="n">
         <v>18</v>
@@ -5285,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
@@ -5323,7 +5323,7 @@
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -5332,13 +5332,13 @@
         <v>27</v>
       </c>
       <c r="K92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L92" t="n">
         <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" t="n">
         <v>25</v>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5379,16 +5379,16 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M93" t="n">
         <v>29</v>
@@ -5411,7 +5411,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" t="n">
         <v>24</v>
@@ -5423,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5435,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
@@ -5464,7 +5464,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" t="n">
         <v>22</v>
@@ -5476,7 +5476,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5488,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5517,16 +5517,16 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
         <v>27</v>
@@ -5544,7 +5544,7 @@
         <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L96" t="n">
         <v>12</v>
@@ -5570,10 +5570,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -5594,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K97" t="n">
         <v>23</v>
       </c>
       <c r="L97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5623,10 +5623,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -5635,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5647,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
@@ -5676,7 +5676,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" t="n">
         <v>27</v>
@@ -5685,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
         <v>24</v>
@@ -5697,13 +5697,13 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L99" t="n">
         <v>12</v>
@@ -5729,10 +5729,10 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -5741,7 +5741,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5762,7 +5762,7 @@
         <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5835,19 +5835,19 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5865,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5888,16 +5888,16 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
         <v>19</v>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J103" t="n">
         <v>18</v>
@@ -5921,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N103" t="n">
         <v>23</v>
@@ -5941,7 +5941,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
@@ -5950,16 +5950,16 @@
         <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
@@ -5974,7 +5974,7 @@
         <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -6006,7 +6006,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6047,7 +6047,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -6062,16 +6062,16 @@
         <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
@@ -6080,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6089,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6100,7 +6100,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107" t="n">
         <v>25</v>
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
         <v>22</v>
@@ -6118,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -6127,7 +6127,7 @@
         <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>11</v>
@@ -6153,7 +6153,7 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C108" t="n">
         <v>29</v>
@@ -6162,19 +6162,19 @@
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J108" t="n">
         <v>24</v>
@@ -6189,7 +6189,7 @@
         <v>34</v>
       </c>
       <c r="N108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6206,10 +6206,10 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
@@ -6218,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -6230,19 +6230,19 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M109" t="n">
         <v>34</v>
       </c>
       <c r="N109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6259,16 +6259,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="n">
         <v>30</v>
@@ -6280,13 +6280,13 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J110" t="n">
+        <v>24</v>
+      </c>
+      <c r="K110" t="n">
         <v>23</v>
-      </c>
-      <c r="K110" t="n">
-        <v>22</v>
       </c>
       <c r="L110" t="n">
         <v>17</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -6324,10 +6324,10 @@
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6365,10 +6365,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -6377,13 +6377,13 @@
         <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
@@ -6395,7 +6395,7 @@
         <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M112" t="n">
         <v>28</v>
@@ -6407,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -6430,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -6451,7 +6451,7 @@
         <v>13</v>
       </c>
       <c r="M113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -6471,10 +6471,10 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -6483,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6498,19 +6498,19 @@
         <v>19</v>
       </c>
       <c r="K114" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M114" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="n">
         <v>7</v>
@@ -6560,7 +6560,7 @@
         <v>25</v>
       </c>
       <c r="N115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6577,16 +6577,16 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="n">
         <v>35</v>
@@ -6604,25 +6604,25 @@
         <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -6630,7 +6630,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" t="n">
         <v>58</v>
@@ -6657,7 +6657,7 @@
         <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
@@ -6666,10 +6666,10 @@
         <v>38</v>
       </c>
       <c r="N117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P117" t="n">
         <v>7</v>
@@ -6683,10 +6683,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C118" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -6695,28 +6695,28 @@
         <v>16</v>
       </c>
       <c r="F118" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>6</v>
       </c>
       <c r="J118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M118" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6725,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="P118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="n">
         <v>14</v>
@@ -6736,10 +6736,10 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D119" t="n">
         <v>6</v>
@@ -6754,7 +6754,7 @@
         <v>5</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>4</v>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -594,7 +594,7 @@
         <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>18</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
         <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
         <v>18</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
         <v>8</v>
@@ -1657,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
@@ -1710,7 +1710,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
@@ -1760,7 +1760,7 @@
         <v>76</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -1772,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1925,13 +1925,13 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2037,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2243,10 +2243,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -2514,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
@@ -2779,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2823,16 +2823,16 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -2882,7 +2882,7 @@
         <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -3032,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3241,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
@@ -3303,7 +3303,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3365,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3465,7 +3465,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3618,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G60" t="n">
         <v>9</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3786,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
         <v>23</v>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>29</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -4213,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
@@ -4260,13 +4260,13 @@
         <v>24</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>14</v>
@@ -4313,7 +4313,7 @@
         <v>22</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>27</v>
@@ -4628,22 +4628,22 @@
         <v>8</v>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>28</v>
       </c>
       <c r="K79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4899,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85" t="n">
         <v>25</v>
@@ -4990,7 +4990,7 @@
         <v>72</v>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -4999,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -5011,13 +5011,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K86" t="n">
         <v>24</v>
       </c>
       <c r="L86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5064,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K87" t="n">
         <v>21</v>
       </c>
       <c r="L87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>26</v>
@@ -5214,7 +5214,7 @@
         <v>24</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -5226,13 +5226,13 @@
         <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L90" t="n">
         <v>13</v>
       </c>
       <c r="M90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L91" t="n">
         <v>10</v>
@@ -5338,7 +5338,7 @@
         <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" t="n">
         <v>25</v>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>25</v>
@@ -5388,7 +5388,7 @@
         <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M93" t="n">
         <v>29</v>
@@ -5414,7 +5414,7 @@
         <v>47</v>
       </c>
       <c r="C94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -5438,13 +5438,13 @@
         <v>24</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L96" t="n">
         <v>12</v>
@@ -5597,10 +5597,10 @@
         <v>21</v>
       </c>
       <c r="K97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M97" t="n">
         <v>26</v>
@@ -5623,13 +5623,13 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" t="n">
         <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -5656,7 +5656,7 @@
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5691,13 +5691,13 @@
         <v>24</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>21</v>
@@ -5732,7 +5732,7 @@
         <v>71</v>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -5759,7 +5759,7 @@
         <v>19</v>
       </c>
       <c r="L100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M100" t="n">
         <v>31</v>
@@ -5785,7 +5785,7 @@
         <v>51</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5794,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5841,10 +5841,10 @@
         <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
         <v>18</v>
@@ -5865,10 +5865,10 @@
         <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
         <v>7</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q103" t="n">
         <v>2</v>
@@ -5941,13 +5941,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -5959,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
@@ -5977,16 +5977,16 @@
         <v>28</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5994,7 +5994,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" t="n">
         <v>20</v>
@@ -6006,7 +6006,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6047,7 +6047,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -6062,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
         <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
@@ -6080,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -6106,7 +6106,7 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -6115,10 +6115,10 @@
         <v>22</v>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -6156,7 +6156,7 @@
         <v>90</v>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
@@ -6186,10 +6186,10 @@
         <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6230,19 +6230,19 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M109" t="n">
         <v>34</v>
       </c>
       <c r="N109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C110" t="n">
         <v>32</v>
@@ -6292,7 +6292,7 @@
         <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N110" t="n">
         <v>6</v>
@@ -6321,7 +6321,7 @@
         <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F111" t="n">
         <v>31</v>
@@ -6330,13 +6330,13 @@
         <v>9</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" t="n">
         <v>22</v>
@@ -6345,7 +6345,7 @@
         <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6365,10 +6365,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -6383,13 +6383,13 @@
         <v>9</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K112" t="n">
         <v>19</v>
@@ -6433,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -6445,7 +6445,7 @@
         <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L113" t="n">
         <v>13</v>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J114" t="n">
         <v>19</v>
@@ -6510,7 +6510,7 @@
         <v>5</v>
       </c>
       <c r="O114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
         <v>7</v>
@@ -6527,7 +6527,7 @@
         <v>61</v>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6560,7 +6560,7 @@
         <v>25</v>
       </c>
       <c r="N115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
         <v>11</v>
@@ -6613,7 +6613,7 @@
         <v>27</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O116" t="n">
         <v>7</v>
@@ -6622,7 +6622,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -6633,16 +6633,16 @@
         <v>99</v>
       </c>
       <c r="C117" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F117" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -6657,19 +6657,19 @@
         <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
       </c>
       <c r="M117" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N117" t="n">
         <v>5</v>
       </c>
       <c r="O117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P117" t="n">
         <v>7</v>
@@ -6683,10 +6683,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
@@ -6701,7 +6701,7 @@
         <v>11</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
         <v>6</v>
@@ -6710,7 +6710,7 @@
         <v>23</v>
       </c>
       <c r="K118" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L118" t="n">
         <v>14</v>
@@ -6725,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q118" t="n">
         <v>14</v>
@@ -6736,19 +6736,19 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6760,10 +6760,10 @@
         <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L119" t="n">
         <v>11</v>
@@ -6772,7 +6772,7 @@
         <v>22</v>
       </c>
       <c r="N119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O119" t="n">
         <v>4</v>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
         <v>18</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
         <v>18</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1280,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1492,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1545,28 +1545,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
         <v>12</v>
-      </c>
-      <c r="E26" t="n">
-        <v>16</v>
-      </c>
-      <c r="F26" t="n">
-        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1863,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1916,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1969,22 +1969,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2022,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2075,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2137,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -2181,22 +2181,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
@@ -2243,10 +2243,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2340,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -2393,19 +2393,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
@@ -2499,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2658,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2711,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2817,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2920,25 +2920,25 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" t="n">
         <v>7</v>
       </c>
-      <c r="E47" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" t="n">
-        <v>22</v>
-      </c>
-      <c r="G47" t="n">
-        <v>8</v>
-      </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2973,25 +2973,25 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3135,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
@@ -3188,28 +3188,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22</v>
+      </c>
+      <c r="G52" t="n">
         <v>7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
-        <v>23</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3238,28 +3238,28 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>37</v>
+      </c>
+      <c r="G53" t="n">
         <v>14</v>
-      </c>
-      <c r="F53" t="n">
-        <v>40</v>
-      </c>
-      <c r="G53" t="n">
-        <v>15</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3294,19 +3294,19 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -3397,22 +3397,22 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -3453,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3515,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -3621,16 +3621,16 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3662,31 +3662,31 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3718,19 +3718,19 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3780,13 +3780,13 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3833,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3886,10 +3886,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3930,25 +3930,25 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4033,10 +4033,10 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4045,10 +4045,10 @@
         <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4089,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4107,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4142,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4160,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>12</v>
@@ -4248,28 +4248,28 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23</v>
+      </c>
+      <c r="G72" t="n">
         <v>4</v>
       </c>
-      <c r="E72" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" t="n">
-        <v>24</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5</v>
-      </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4298,10 +4298,10 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -4310,22 +4310,22 @@
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4416,10 +4416,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4460,16 +4460,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4510,22 +4510,22 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>30</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="n">
         <v>32</v>
       </c>
-      <c r="D77" t="n">
-        <v>6</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>34</v>
-      </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4584,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4619,19 +4619,19 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -4640,10 +4640,10 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4693,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4725,16 +4725,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4746,10 +4746,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4799,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4831,16 +4831,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4849,13 +4849,13 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4884,34 +4884,34 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K84" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L84" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4934,19 +4934,19 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4958,13 +4958,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -4999,10 +4999,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5011,13 +5011,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K86" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5043,16 +5043,16 @@
         <v>77</v>
       </c>
       <c r="C87" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87" t="n">
         <v>9</v>
@@ -5064,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5093,22 +5093,22 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -5117,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5146,19 +5146,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5167,13 +5167,13 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5199,40 +5199,40 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
       </c>
       <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>22</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>23</v>
+      </c>
+      <c r="K90" t="n">
+        <v>17</v>
+      </c>
+      <c r="L90" t="n">
+        <v>12</v>
+      </c>
+      <c r="M90" t="n">
         <v>7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24</v>
-      </c>
-      <c r="G90" t="n">
-        <v>7</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25</v>
-      </c>
-      <c r="K90" t="n">
-        <v>19</v>
-      </c>
-      <c r="L90" t="n">
-        <v>13</v>
-      </c>
-      <c r="M90" t="n">
-        <v>8</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5252,19 +5252,19 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" t="n">
-        <v>7</v>
-      </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5276,16 +5276,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M91" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5305,40 +5305,40 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
       </c>
       <c r="F92" t="n">
+        <v>24</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
         <v>25</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
+        <v>22</v>
+      </c>
+      <c r="L92" t="n">
         <v>10</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>27</v>
-      </c>
-      <c r="K92" t="n">
-        <v>24</v>
-      </c>
-      <c r="L92" t="n">
-        <v>11</v>
-      </c>
       <c r="M92" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5358,22 +5358,22 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -5382,16 +5382,16 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L93" t="n">
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5411,19 +5411,19 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5435,16 +5435,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K94" t="n">
         <v>19</v>
       </c>
       <c r="L94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5464,19 +5464,19 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5488,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5517,19 +5517,19 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5541,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M96" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5570,22 +5570,22 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5594,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K97" t="n">
+        <v>22</v>
+      </c>
+      <c r="L97" t="n">
+        <v>10</v>
+      </c>
+      <c r="M97" t="n">
         <v>24</v>
-      </c>
-      <c r="L97" t="n">
-        <v>11</v>
-      </c>
-      <c r="M97" t="n">
-        <v>26</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5623,19 +5623,19 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5647,16 +5647,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5676,46 +5676,46 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22</v>
+      </c>
+      <c r="G99" t="n">
         <v>7</v>
       </c>
-      <c r="E99" t="n">
-        <v>10</v>
-      </c>
-      <c r="F99" t="n">
-        <v>24</v>
-      </c>
-      <c r="G99" t="n">
-        <v>8</v>
-      </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
+        <v>20</v>
+      </c>
+      <c r="K99" t="n">
         <v>21</v>
       </c>
-      <c r="K99" t="n">
-        <v>23</v>
-      </c>
       <c r="L99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M99" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5729,19 +5729,19 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5753,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K100" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M100" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5782,10 +5782,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5794,28 +5794,28 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K101" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5835,19 +5835,19 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5859,16 +5859,16 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5888,49 +5888,49 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
         <v>7</v>
       </c>
-      <c r="E103" t="n">
-        <v>8</v>
-      </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17</v>
+      </c>
+      <c r="K103" t="n">
+        <v>17</v>
+      </c>
+      <c r="L103" t="n">
         <v>11</v>
       </c>
-      <c r="J103" t="n">
-        <v>18</v>
-      </c>
-      <c r="K103" t="n">
-        <v>18</v>
-      </c>
-      <c r="L103" t="n">
-        <v>12</v>
-      </c>
       <c r="M103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N103" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q103" t="n">
         <v>2</v>
@@ -5941,52 +5941,52 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
+        <v>16</v>
+      </c>
+      <c r="K104" t="n">
         <v>17</v>
       </c>
-      <c r="K104" t="n">
-        <v>18</v>
-      </c>
       <c r="L104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -5994,40 +5994,40 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
       </c>
       <c r="E105" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>19</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>17</v>
+      </c>
+      <c r="K105" t="n">
+        <v>18</v>
+      </c>
+      <c r="L105" t="n">
         <v>9</v>
       </c>
-      <c r="F105" t="n">
-        <v>20</v>
-      </c>
-      <c r="G105" t="n">
-        <v>6</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>18</v>
-      </c>
-      <c r="K105" t="n">
-        <v>19</v>
-      </c>
-      <c r="L105" t="n">
-        <v>10</v>
-      </c>
       <c r="M105" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -6047,40 +6047,40 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L106" t="n">
         <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -6100,22 +6100,22 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -6124,16 +6124,16 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M107" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -6153,40 +6153,40 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C108" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>27</v>
+      </c>
+      <c r="G108" t="n">
+        <v>8</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>22</v>
+      </c>
+      <c r="K108" t="n">
+        <v>26</v>
+      </c>
+      <c r="L108" t="n">
         <v>11</v>
       </c>
-      <c r="F108" t="n">
-        <v>29</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>24</v>
-      </c>
-      <c r="K108" t="n">
-        <v>28</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12</v>
-      </c>
       <c r="M108" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6209,19 +6209,19 @@
         <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -6230,16 +6230,16 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L109" t="n">
         <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -6259,49 +6259,49 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28</v>
+      </c>
+      <c r="G110" t="n">
+        <v>8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110" t="n">
+        <v>22</v>
+      </c>
+      <c r="K110" t="n">
+        <v>21</v>
+      </c>
+      <c r="L110" t="n">
+        <v>16</v>
+      </c>
+      <c r="M110" t="n">
+        <v>31</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
         <v>10</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12</v>
-      </c>
-      <c r="F110" t="n">
-        <v>30</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>24</v>
-      </c>
-      <c r="K110" t="n">
-        <v>23</v>
-      </c>
-      <c r="L110" t="n">
-        <v>17</v>
-      </c>
-      <c r="M110" t="n">
-        <v>35</v>
-      </c>
-      <c r="N110" t="n">
-        <v>6</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>11</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -6312,40 +6312,40 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C111" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F111" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K111" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M111" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -6365,49 +6365,49 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>26</v>
+      </c>
+      <c r="G112" t="n">
         <v>8</v>
       </c>
-      <c r="E112" t="n">
-        <v>10</v>
-      </c>
-      <c r="F112" t="n">
-        <v>28</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9</v>
-      </c>
       <c r="H112" t="n">
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M112" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -6442,16 +6442,16 @@
         <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K113" t="n">
+        <v>20</v>
+      </c>
+      <c r="L113" t="n">
+        <v>12</v>
+      </c>
+      <c r="M113" t="n">
         <v>22</v>
-      </c>
-      <c r="L113" t="n">
-        <v>13</v>
-      </c>
-      <c r="M113" t="n">
-        <v>24</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6471,19 +6471,19 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6495,16 +6495,16 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6524,22 +6524,22 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G115" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -6548,28 +6548,28 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K115" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M115" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
         <v>5</v>
       </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>6</v>
-      </c>
       <c r="Q115" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -6577,22 +6577,22 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" t="n">
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -6601,28 +6601,28 @@
         <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K116" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -6630,40 +6630,40 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C117" t="n">
+        <v>55</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16</v>
+      </c>
+      <c r="F117" t="n">
         <v>59</v>
       </c>
-      <c r="D117" t="n">
-        <v>14</v>
-      </c>
-      <c r="E117" t="n">
-        <v>18</v>
-      </c>
-      <c r="F117" t="n">
-        <v>64</v>
-      </c>
       <c r="G117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K117" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L117" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M117" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N117" t="n">
         <v>5</v>
@@ -6672,10 +6672,10 @@
         <v>10</v>
       </c>
       <c r="P117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -6683,22 +6683,22 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C118" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
       </c>
       <c r="E118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F118" t="n">
         <v>52</v>
       </c>
       <c r="G118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
         <v>2</v>
@@ -6707,16 +6707,16 @@
         <v>6</v>
       </c>
       <c r="J118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K118" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M118" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6725,10 +6725,10 @@
         <v>6</v>
       </c>
       <c r="P118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -6736,19 +6736,19 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6763,16 +6763,16 @@
         <v>13</v>
       </c>
       <c r="K119" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M119" t="n">
         <v>22</v>
       </c>
       <c r="N119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O119" t="n">
         <v>4</v>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -694,16 +694,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>11</v>
@@ -1492,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1598,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" t="n">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
-        <v>15</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>8</v>
       </c>
-      <c r="G22" t="n">
-        <v>7</v>
-      </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1648,22 +1648,22 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -1722,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1863,22 +1863,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
         <v>14</v>
@@ -1931,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1969,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" t="n">
         <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12</v>
-      </c>
-      <c r="F29" t="n">
-        <v>14</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -2022,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>7</v>
@@ -2084,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2137,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
         <v>7</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2190,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -2340,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -2393,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2446,22 +2446,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2499,22 +2499,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21</v>
+      </c>
+      <c r="G39" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>13</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6</v>
-      </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2658,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2711,22 +2711,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -2826,13 +2826,13 @@
         <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
         <v>8</v>
@@ -2920,22 +2920,22 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -2976,22 +2976,22 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
         <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
@@ -3038,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3091,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3135,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
@@ -3188,28 +3188,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3241,25 +3241,25 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3294,19 +3294,19 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>41</v>
+      </c>
+      <c r="G55" t="n">
         <v>13</v>
-      </c>
-      <c r="F55" t="n">
-        <v>40</v>
-      </c>
-      <c r="G55" t="n">
-        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
         <v>11</v>
@@ -3453,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3515,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" t="n">
+        <v>31</v>
+      </c>
+      <c r="G59" t="n">
         <v>8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>29</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -3621,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3662,10 +3662,10 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>
@@ -3674,19 +3674,19 @@
         <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3727,16 +3727,16 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3780,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3833,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3886,10 +3886,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3930,25 +3930,25 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4033,19 +4033,19 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4089,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>12</v>
@@ -4195,25 +4195,25 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>12</v>
@@ -4248,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4298,25 +4298,25 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -4351,31 +4351,31 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4416,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -4428,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4460,16 +4460,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4481,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4510,22 +4510,22 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33</v>
+      </c>
+      <c r="G77" t="n">
         <v>5</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>32</v>
-      </c>
-      <c r="G77" t="n">
-        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -4628,10 +4628,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K80" t="n">
         <v>19</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -4734,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
         <v>14</v>
@@ -4784,10 +4784,10 @@
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4796,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K82" t="n">
         <v>14</v>
@@ -4831,16 +4831,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4852,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -4893,10 +4893,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -4905,13 +4905,13 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4934,19 +4934,19 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4958,13 +4958,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -4999,10 +4999,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5011,13 +5011,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K86" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5040,19 +5040,19 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C87" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="n">
         <v>9</v>
@@ -5064,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L87" t="n">
         <v>11</v>
@@ -5093,10 +5093,10 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -5105,7 +5105,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5117,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>10</v>
@@ -5146,31 +5146,31 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K89" t="n">
         <v>18</v>
@@ -5199,19 +5199,19 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5220,16 +5220,16 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90" t="n">
         <v>7</v>
@@ -5252,19 +5252,19 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5276,16 +5276,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5305,22 +5305,22 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -5329,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5358,22 +5358,22 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -5382,16 +5382,16 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L93" t="n">
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5411,19 +5411,19 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5435,16 +5435,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" t="n">
         <v>19</v>
       </c>
       <c r="L94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5464,10 +5464,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -5476,7 +5476,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5488,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5517,19 +5517,19 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5541,16 +5541,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K96" t="n">
+        <v>26</v>
+      </c>
+      <c r="L96" t="n">
+        <v>12</v>
+      </c>
+      <c r="M96" t="n">
         <v>25</v>
-      </c>
-      <c r="L96" t="n">
-        <v>11</v>
-      </c>
-      <c r="M96" t="n">
-        <v>23</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5570,23 +5570,23 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
       </c>
       <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>23</v>
+      </c>
+      <c r="G97" t="n">
         <v>8</v>
       </c>
-      <c r="F97" t="n">
-        <v>21</v>
-      </c>
-      <c r="G97" t="n">
-        <v>7</v>
-      </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
@@ -5594,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L97" t="n">
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5623,10 +5623,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -5635,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5650,13 +5650,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5676,19 +5676,19 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -5697,19 +5697,19 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M99" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
         <v>20</v>
@@ -5753,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K100" t="n">
         <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5782,10 +5782,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5794,28 +5794,28 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -5847,7 +5847,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5859,16 +5859,16 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
@@ -5900,31 +5900,31 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -5941,13 +5941,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -5962,19 +5962,19 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
@@ -5994,40 +5994,40 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C105" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>18</v>
+      </c>
+      <c r="K105" t="n">
         <v>19</v>
       </c>
-      <c r="G105" t="n">
-        <v>5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>17</v>
-      </c>
-      <c r="K105" t="n">
-        <v>18</v>
-      </c>
       <c r="L105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -6047,7 +6047,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C106" t="n">
         <v>23</v>
@@ -6065,13 +6065,13 @@
         <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>13</v>
       </c>
       <c r="J106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
         <v>19</v>
@@ -6080,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -6100,19 +6100,19 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -6124,16 +6124,16 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K107" t="n">
         <v>19</v>
       </c>
       <c r="L107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -6153,10 +6153,10 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -6177,16 +6177,16 @@
         <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6209,7 +6209,7 @@
         <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -6218,10 +6218,10 @@
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -6230,16 +6230,16 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K109" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
         <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -6259,22 +6259,22 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -6283,19 +6283,19 @@
         <v>6</v>
       </c>
       <c r="J110" t="n">
+        <v>23</v>
+      </c>
+      <c r="K110" t="n">
         <v>22</v>
       </c>
-      <c r="K110" t="n">
-        <v>21</v>
-      </c>
       <c r="L110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -6312,40 +6312,40 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
         <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -6365,19 +6365,19 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G112" t="n">
         <v>8</v>
@@ -6389,19 +6389,19 @@
         <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L112" t="n">
         <v>13</v>
       </c>
       <c r="M112" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6418,10 +6418,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C113" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -6430,7 +6430,7 @@
         <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -6442,16 +6442,16 @@
         <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M113" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6471,10 +6471,10 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -6483,7 +6483,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6495,16 +6495,16 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L114" t="n">
         <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -6524,22 +6524,22 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C115" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -6548,13 +6548,13 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M115" t="n">
         <v>24</v>
@@ -6566,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -6577,10 +6577,10 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
         <v>7</v>
@@ -6589,10 +6589,10 @@
         <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -6601,16 +6601,16 @@
         <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
@@ -6622,7 +6622,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -6630,40 +6630,40 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J117" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M117" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N117" t="n">
         <v>5</v>
@@ -6672,10 +6672,10 @@
         <v>10</v>
       </c>
       <c r="P117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -6683,19 +6683,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
         <v>11</v>
       </c>
       <c r="E118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F118" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G118" t="n">
         <v>10</v>
@@ -6707,16 +6707,16 @@
         <v>6</v>
       </c>
       <c r="J118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K118" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L118" t="n">
         <v>13</v>
       </c>
       <c r="M118" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6725,10 +6725,10 @@
         <v>6</v>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -6736,19 +6736,19 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6760,19 +6760,19 @@
         <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M119" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O119" t="n">
         <v>4</v>
@@ -6781,7 +6781,7 @@
         <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -695,16 +695,16 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -854,16 +854,16 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
         <v>17</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
         <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
         <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1225,19 +1225,19 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
@@ -1558,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1649,7 +1649,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>52</v>
@@ -1705,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -1767,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
@@ -1861,10 +1861,10 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2144,13 +2144,13 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2288,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
@@ -2403,19 +2403,19 @@
         <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
         <v>21</v>
@@ -2612,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
         <v>18</v>
@@ -2762,7 +2762,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>41</v>
@@ -2777,7 +2777,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -2827,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -2933,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -2983,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
         <v>30</v>
@@ -2992,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3145,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3242,16 +3242,16 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
@@ -3298,7 +3298,7 @@
         <v>54</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>15</v>
@@ -3366,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -3410,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -3622,10 +3622,10 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>
@@ -3675,22 +3675,22 @@
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3716,16 +3716,16 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
         <v>42</v>
@@ -3781,7 +3781,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3837,7 +3837,7 @@
         <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4049,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>22</v>
@@ -4161,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -4311,10 +4311,10 @@
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>34</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -4405,7 +4405,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>36</v>
@@ -4417,7 +4417,7 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -4432,7 +4432,7 @@
         <v>48</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>30</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4523,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>29</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -4626,22 +4626,22 @@
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
         <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4679,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>33</v>
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -4732,13 +4732,13 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K82" t="n">
         <v>14</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4841,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4850,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -4935,10 +4935,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4947,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
         <v>24</v>
@@ -4988,7 +4988,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C86" t="n">
         <v>33</v>
@@ -5012,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K86" t="n">
         <v>24</v>
@@ -5094,13 +5094,13 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" t="n">
         <v>26</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K88" t="n">
         <v>21</v>
@@ -5147,10 +5147,10 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
         <v>5</v>
@@ -5159,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5174,7 +5174,7 @@
         <v>26</v>
       </c>
       <c r="K89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5200,10 +5200,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5215,7 +5215,7 @@
         <v>23</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -5259,13 +5259,13 @@
         <v>22</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5286,7 +5286,7 @@
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
@@ -5359,7 +5359,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" t="n">
         <v>25</v>
@@ -5371,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5386,10 +5386,10 @@
         <v>24</v>
       </c>
       <c r="K93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M93" t="n">
         <v>29</v>
@@ -5412,10 +5412,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -5436,10 +5436,10 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
@@ -5465,7 +5465,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
         <v>22</v>
@@ -5477,13 +5477,13 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -5492,13 +5492,13 @@
         <v>20</v>
       </c>
       <c r="K95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>59</v>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
         <v>7</v>
@@ -5571,10 +5571,10 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -5586,7 +5586,7 @@
         <v>23</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K97" t="n">
         <v>23</v>
@@ -5627,7 +5627,7 @@
         <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" t="n">
         <v>20</v>
@@ -5677,7 +5677,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" t="n">
         <v>27</v>
@@ -5686,19 +5686,19 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
         <v>24</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>21</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C100" t="n">
         <v>23</v>
@@ -5739,10 +5739,10 @@
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
         <v>21</v>
@@ -5810,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L101" t="n">
         <v>11</v>
@@ -5836,7 +5836,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C102" t="n">
         <v>19</v>
@@ -5848,7 +5848,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5863,7 +5863,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
@@ -5889,7 +5889,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
         <v>19</v>
@@ -5901,22 +5901,22 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J103" t="n">
         <v>18</v>
       </c>
       <c r="K103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L103" t="n">
         <v>12</v>
@@ -5948,16 +5948,16 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
         <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -5966,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K104" t="n">
         <v>18</v>
@@ -5978,7 +5978,7 @@
         <v>27</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6063,7 +6063,7 @@
         <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -6072,13 +6072,13 @@
         <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M106" t="n">
         <v>28</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -6101,7 +6101,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>25</v>
@@ -6110,7 +6110,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
         <v>22</v>
@@ -6119,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -6128,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>11</v>
@@ -6157,13 +6157,13 @@
         <v>88</v>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
         <v>28</v>
@@ -6175,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J108" t="n">
         <v>24</v>
@@ -6210,16 +6210,16 @@
         <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -6240,7 +6240,7 @@
         <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6260,10 +6260,10 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -6313,7 +6313,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C111" t="n">
         <v>28</v>
@@ -6328,10 +6328,10 @@
         <v>31</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -6349,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="N111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
         <v>23</v>
@@ -6396,10 +6396,10 @@
         <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N112" t="n">
         <v>5</v>
@@ -6419,7 +6419,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C113" t="n">
         <v>28</v>
@@ -6431,10 +6431,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -6472,16 +6472,16 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="n">
         <v>40</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6570,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -6578,16 +6578,16 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="n">
         <v>35</v>
@@ -6605,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
@@ -6631,7 +6631,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C117" t="n">
         <v>58</v>
@@ -6643,7 +6643,7 @@
         <v>18</v>
       </c>
       <c r="F117" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -6658,7 +6658,7 @@
         <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C118" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6705,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J118" t="n">
         <v>23</v>
@@ -6717,7 +6717,7 @@
         <v>14</v>
       </c>
       <c r="M118" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6737,10 +6737,10 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -6764,13 +6764,13 @@
         <v>14</v>
       </c>
       <c r="K119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M119" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
@@ -6779,10 +6779,10 @@
         <v>4</v>
       </c>
       <c r="P119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1546,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
@@ -1714,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
         <v>9</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
@@ -1820,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1861,10 +1861,10 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1873,13 +1873,13 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
@@ -1926,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1979,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2032,13 +2032,13 @@
         <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
         <v>17</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -2303,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
@@ -2409,7 +2409,7 @@
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>21</v>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -2509,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2550,16 +2550,16 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
         <v>21</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2662,13 +2662,13 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2762,25 +2762,25 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
         <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
         <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2977,22 +2977,22 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3027,19 +3027,19 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -3142,10 +3142,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3198,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3251,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="n">
         <v>13</v>
@@ -3366,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3463,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -3507,16 +3507,16 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3613,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>23</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>14</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4420,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4482,10 +4482,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,19 +4620,19 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -4676,7 +4676,7 @@
         <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -4688,13 +4688,13 @@
         <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K80" t="n">
         <v>20</v>
@@ -4738,7 +4738,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4841,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4885,16 +4885,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
         <v>12</v>
@@ -4903,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K84" t="n">
         <v>27</v>
@@ -4935,7 +4935,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" t="n">
         <v>35</v>
@@ -4959,13 +4959,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L85" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C86" t="n">
         <v>33</v>
@@ -5041,7 +5041,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C87" t="n">
         <v>33</v>
@@ -5056,7 +5056,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K87" t="n">
         <v>21</v>
@@ -5094,19 +5094,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5124,7 +5124,7 @@
         <v>21</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5147,16 +5147,16 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" t="n">
         <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" t="n">
         <v>31</v>
@@ -5212,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -5227,7 +5227,7 @@
         <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L90" t="n">
         <v>13</v>
@@ -5253,16 +5253,16 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
         <v>22</v>
@@ -5277,16 +5277,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L91" t="n">
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
@@ -5318,7 +5318,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
@@ -5333,13 +5333,13 @@
         <v>27</v>
       </c>
       <c r="K92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L92" t="n">
         <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5359,16 +5359,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
         <v>25</v>
@@ -5380,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K93" t="n">
         <v>25</v>
@@ -5392,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>24</v>
@@ -5424,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K94" t="n">
         <v>20</v>
@@ -5445,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5465,16 +5465,16 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>20</v>
@@ -5495,7 +5495,7 @@
         <v>20</v>
       </c>
       <c r="L95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M95" t="n">
         <v>20</v>
@@ -5518,7 +5518,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" t="n">
         <v>27</v>
@@ -5530,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5545,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L96" t="n">
         <v>12</v>
@@ -5571,19 +5571,19 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" t="n">
         <v>24</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5598,13 +5598,13 @@
         <v>21</v>
       </c>
       <c r="K97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5624,22 +5624,22 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C98" t="n">
         <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -5651,13 +5651,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,10 +5677,10 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
@@ -5698,13 +5698,13 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L99" t="n">
         <v>12</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C100" t="n">
         <v>23</v>
@@ -5763,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5783,10 +5783,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5795,7 +5795,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5842,13 +5842,13 @@
         <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5869,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5889,16 +5889,16 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
         <v>19</v>
@@ -5913,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="J103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K103" t="n">
         <v>18</v>
@@ -5922,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N103" t="n">
         <v>23</v>
@@ -5942,13 +5942,13 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -5957,7 +5957,7 @@
         <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -5966,16 +5966,16 @@
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L104" t="n">
         <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N104" t="n">
         <v>10</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -5995,7 +5995,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" t="n">
         <v>20</v>
@@ -6007,7 +6007,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6028,7 +6028,7 @@
         <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6048,7 +6048,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -6072,16 +6072,16 @@
         <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M106" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6101,19 +6101,19 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107" t="n">
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -6125,7 +6125,7 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K107" t="n">
         <v>20</v>
@@ -6154,19 +6154,19 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -6181,22 +6181,22 @@
         <v>24</v>
       </c>
       <c r="K108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M108" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -6207,7 +6207,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C109" t="n">
         <v>31</v>
@@ -6231,19 +6231,19 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M109" t="n">
         <v>34</v>
       </c>
       <c r="N109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C110" t="n">
         <v>32</v>
@@ -6272,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -6287,13 +6287,13 @@
         <v>24</v>
       </c>
       <c r="K110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L110" t="n">
         <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N110" t="n">
         <v>6</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -6313,10 +6313,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="n">
         <v>9</v>
@@ -6325,10 +6325,10 @@
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6346,7 +6346,7 @@
         <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6366,7 +6366,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C112" t="n">
         <v>30</v>
@@ -6399,7 +6399,7 @@
         <v>14</v>
       </c>
       <c r="M112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N112" t="n">
         <v>5</v>
@@ -6419,10 +6419,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -6446,7 +6446,7 @@
         <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L113" t="n">
         <v>13</v>
@@ -6455,7 +6455,7 @@
         <v>24</v>
       </c>
       <c r="N113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O113" t="n">
         <v>1</v>
@@ -6472,7 +6472,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C114" t="n">
         <v>29</v>
@@ -6484,7 +6484,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6502,13 +6502,13 @@
         <v>23</v>
       </c>
       <c r="L114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M114" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C115" t="n">
         <v>28</v>
@@ -6578,7 +6578,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116" t="n">
         <v>30</v>
@@ -6590,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="n">
         <v>9</v>
@@ -6605,16 +6605,16 @@
         <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O116" t="n">
         <v>7</v>
@@ -6623,7 +6623,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -6631,10 +6631,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C117" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
@@ -6643,28 +6643,28 @@
         <v>18</v>
       </c>
       <c r="F117" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>8</v>
       </c>
       <c r="J117" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K117" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M117" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N117" t="n">
         <v>6</v>
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C118" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6708,28 +6708,28 @@
         <v>7</v>
       </c>
       <c r="J118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K118" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M118" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
       </c>
       <c r="O118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P118" t="n">
         <v>7</v>
       </c>
       <c r="Q118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -6737,22 +6737,22 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C119" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -6761,13 +6761,13 @@
         <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K119" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M119" t="n">
         <v>23</v>
@@ -6776,13 +6776,13 @@
         <v>5</v>
       </c>
       <c r="O119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P119" t="n">
         <v>6</v>
       </c>
       <c r="Q119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -536,10 +536,10 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -595,7 +595,7 @@
         <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -648,7 +648,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>19</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
         <v>16</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1508,13 +1508,13 @@
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1546,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1705,22 +1705,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
         <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
@@ -1820,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>51</v>
@@ -1873,10 +1873,10 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -2091,13 +2091,13 @@
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
         <v>17</v>
@@ -2144,13 +2144,13 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
         <v>18</v>
@@ -2197,13 +2197,13 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
@@ -2459,10 +2459,10 @@
         <v>21</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2500,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -2550,7 +2550,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>42</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2659,22 +2659,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2765,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
         <v>29</v>
@@ -2824,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -2868,22 +2868,22 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
         <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -3027,19 +3027,19 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -3136,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3251,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -3366,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -3410,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3507,16 +3507,16 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3613,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
         <v>9</v>
@@ -3631,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3769,7 +3769,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>39</v>
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3931,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
         <v>6</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>13</v>
@@ -4249,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -4314,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4358,7 +4358,7 @@
         <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -4370,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -4405,10 +4405,10 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4420,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -4576,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4676,13 +4676,13 @@
         <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4732,10 +4732,10 @@
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4803,7 +4803,7 @@
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4841,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4850,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
         <v>15</v>
@@ -4885,16 +4885,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" t="n">
         <v>12</v>
@@ -4903,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K84" t="n">
         <v>27</v>
@@ -4935,10 +4935,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4947,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4959,13 +4959,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
         <v>25</v>
       </c>
       <c r="L85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86" t="n">
         <v>33</v>
@@ -5041,7 +5041,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n">
         <v>33</v>
@@ -5056,7 +5056,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
         <v>21</v>
@@ -5094,19 +5094,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K88" t="n">
         <v>21</v>
       </c>
       <c r="L88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
         <v>27</v>
@@ -5156,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" t="n">
         <v>31</v>
@@ -5200,10 +5200,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5212,28 +5212,28 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
+        <v>23</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
         <v>24</v>
       </c>
-      <c r="G90" t="n">
-        <v>7</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25</v>
-      </c>
       <c r="K90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L90" t="n">
         <v>13</v>
       </c>
       <c r="M90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5253,19 +5253,19 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5277,16 +5277,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L91" t="n">
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
@@ -5318,7 +5318,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
@@ -5359,16 +5359,16 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
         <v>25</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>25</v>
@@ -5392,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" t="n">
         <v>24</v>
@@ -5424,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5436,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -5489,16 +5489,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
         <v>7</v>
@@ -5530,10 +5530,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -5545,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L96" t="n">
         <v>12</v>
@@ -5571,19 +5571,19 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5595,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L97" t="n">
         <v>11</v>
@@ -5624,7 +5624,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" t="n">
         <v>26</v>
@@ -5639,7 +5639,7 @@
         <v>24</v>
       </c>
       <c r="G98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -5651,13 +5651,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,10 +5677,10 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
@@ -5692,7 +5692,7 @@
         <v>24</v>
       </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -5763,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
         <v>22</v>
@@ -5795,7 +5795,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5842,7 +5842,7 @@
         <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -5869,7 +5869,7 @@
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5889,13 +5889,13 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -5910,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K103" t="n">
         <v>18</v>
@@ -5922,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N103" t="n">
         <v>23</v>
@@ -5942,7 +5942,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
@@ -5951,16 +5951,16 @@
         <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
         <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
@@ -5969,16 +5969,16 @@
         <v>17</v>
       </c>
       <c r="K104" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L104" t="n">
         <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5995,19 +5995,19 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" t="n">
         <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -6048,7 +6048,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -6063,7 +6063,7 @@
         <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -6072,16 +6072,16 @@
         <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
         <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6090,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6101,19 +6101,19 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -6125,10 +6125,10 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="n">
         <v>11</v>
@@ -6154,49 +6154,49 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C108" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J108" t="n">
         <v>24</v>
       </c>
       <c r="K108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -6207,7 +6207,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C109" t="n">
         <v>31</v>
@@ -6231,19 +6231,19 @@
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M109" t="n">
         <v>34</v>
       </c>
       <c r="N109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110" t="n">
         <v>32</v>
@@ -6272,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="F110" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -6284,16 +6284,16 @@
         <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K110" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L110" t="n">
         <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N110" t="n">
         <v>6</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -6313,10 +6313,10 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C111" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
         <v>9</v>
@@ -6325,13 +6325,13 @@
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -6346,7 +6346,7 @@
         <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6366,7 +6366,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C112" t="n">
         <v>30</v>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
         <v>23</v>
@@ -6399,19 +6399,19 @@
         <v>14</v>
       </c>
       <c r="M112" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -6419,10 +6419,10 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
@@ -6431,10 +6431,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L113" t="n">
         <v>13</v>
@@ -6455,7 +6455,7 @@
         <v>24</v>
       </c>
       <c r="N113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O113" t="n">
         <v>1</v>
@@ -6472,7 +6472,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C114" t="n">
         <v>29</v>
@@ -6484,7 +6484,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6502,13 +6502,13 @@
         <v>23</v>
       </c>
       <c r="L114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C115" t="n">
         <v>28</v>
@@ -6570,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -6578,7 +6578,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C116" t="n">
         <v>30</v>
@@ -6590,13 +6590,13 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="n">
         <v>9</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>5</v>
@@ -6611,10 +6611,10 @@
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O116" t="n">
         <v>7</v>
@@ -6623,7 +6623,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -6631,19 +6631,19 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C117" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -6655,19 +6655,19 @@
         <v>8</v>
       </c>
       <c r="J117" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M117" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O117" t="n">
         <v>10</v>
@@ -6684,10 +6684,10 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C118" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D118" t="n">
         <v>12</v>
@@ -6696,7 +6696,7 @@
         <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6708,13 +6708,13 @@
         <v>7</v>
       </c>
       <c r="J118" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K118" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" t="n">
         <v>31</v>
@@ -6737,22 +6737,22 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>11</v>
       </c>
       <c r="M119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
       </c>
       <c r="O119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P119" t="n">
         <v>6</v>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -536,16 +536,16 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
         <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -645,19 +645,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
@@ -751,14 +751,14 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -804,14 +804,14 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1546,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1599,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12</v>
-      </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1705,22 +1705,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1755,19 +1755,19 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1808,16 +1808,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
@@ -1861,22 +1861,22 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2023,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2076,28 +2076,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2138,10 +2138,10 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2191,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2288,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2341,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D39" t="n">
         <v>7</v>
@@ -2509,10 +2509,10 @@
         <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -2553,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2615,13 +2615,13 @@
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2659,22 +2659,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -2721,7 +2721,7 @@
         <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2765,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -2827,13 +2827,13 @@
         <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
         <v>8</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" t="n">
         <v>7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" t="n">
-        <v>22</v>
-      </c>
-      <c r="G47" t="n">
-        <v>8</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
@@ -3030,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -3083,22 +3083,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3136,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3242,25 +3242,25 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
       </c>
       <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>37</v>
+      </c>
+      <c r="G53" t="n">
         <v>14</v>
-      </c>
-      <c r="F53" t="n">
-        <v>39</v>
-      </c>
-      <c r="G53" t="n">
-        <v>15</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3295,25 +3295,25 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
       </c>
       <c r="E54" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" t="n">
+        <v>39</v>
+      </c>
+      <c r="G54" t="n">
         <v>15</v>
-      </c>
-      <c r="F54" t="n">
-        <v>41</v>
-      </c>
-      <c r="G54" t="n">
-        <v>16</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3345,22 +3345,22 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3507,25 +3507,25 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3613,19 +3613,19 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3728,10 +3728,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -3769,10 +3769,10 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3781,10 +3781,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3887,10 +3887,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3984,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4037,19 +4037,19 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>26</v>
+      </c>
+      <c r="G68" t="n">
         <v>3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>28</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4090,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4152,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4196,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4267,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4355,28 +4355,28 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4408,16 +4408,16 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4514,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4567,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,19 +4620,19 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4673,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4694,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -4735,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4779,19 +4779,19 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -4800,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4832,16 +4832,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4853,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4885,34 +4885,34 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K84" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L84" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4935,22 +4935,22 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="n">
+        <v>8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>38</v>
+      </c>
+      <c r="G85" t="n">
         <v>9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>41</v>
-      </c>
-      <c r="G85" t="n">
-        <v>10</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -4959,13 +4959,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L85" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4988,10 +4988,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -5000,10 +5000,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5012,13 +5012,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L86" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5041,37 +5041,37 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C87" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="n">
+        <v>9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>32</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>32</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20</v>
+      </c>
+      <c r="L87" t="n">
         <v>10</v>
-      </c>
-      <c r="F87" t="n">
-        <v>34</v>
-      </c>
-      <c r="G87" t="n">
-        <v>9</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>34</v>
-      </c>
-      <c r="K87" t="n">
-        <v>21</v>
-      </c>
-      <c r="L87" t="n">
-        <v>11</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5094,10 +5094,10 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C88" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -5106,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5147,19 +5147,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5168,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5200,19 +5200,19 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5224,13 +5224,13 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M90" t="n">
         <v>7</v>
@@ -5253,19 +5253,19 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5277,16 +5277,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M91" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,10 +5306,10 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5318,28 +5318,28 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
+        <v>23</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
         <v>25</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
+        <v>22</v>
+      </c>
+      <c r="L92" t="n">
         <v>10</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>27</v>
-      </c>
-      <c r="K92" t="n">
-        <v>24</v>
-      </c>
-      <c r="L92" t="n">
-        <v>11</v>
-      </c>
       <c r="M92" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5359,19 +5359,19 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5380,19 +5380,19 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M93" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,23 +5412,23 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C94" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21</v>
+      </c>
+      <c r="G94" t="n">
         <v>6</v>
       </c>
-      <c r="E94" t="n">
-        <v>9</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23</v>
-      </c>
-      <c r="G94" t="n">
-        <v>7</v>
-      </c>
       <c r="H94" t="n">
         <v>1</v>
       </c>
@@ -5436,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K94" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5465,19 +5465,19 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5489,16 +5489,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5518,23 +5518,23 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25</v>
+      </c>
+      <c r="G96" t="n">
         <v>7</v>
       </c>
-      <c r="E96" t="n">
-        <v>9</v>
-      </c>
-      <c r="F96" t="n">
-        <v>27</v>
-      </c>
-      <c r="G96" t="n">
-        <v>8</v>
-      </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
@@ -5542,16 +5542,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
+        <v>22</v>
+      </c>
+      <c r="K96" t="n">
         <v>24</v>
       </c>
-      <c r="K96" t="n">
-        <v>26</v>
-      </c>
       <c r="L96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M96" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5571,22 +5571,22 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5595,16 +5595,16 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K97" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5624,19 +5624,19 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5648,16 +5648,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,19 +5677,19 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -5701,16 +5701,16 @@
         <v>2</v>
       </c>
       <c r="J99" t="n">
+        <v>19</v>
+      </c>
+      <c r="K99" t="n">
         <v>21</v>
       </c>
-      <c r="K99" t="n">
-        <v>23</v>
-      </c>
       <c r="L99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M99" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5754,16 +5754,16 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K100" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M100" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5783,22 +5783,22 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -5807,16 +5807,16 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K101" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C102" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
         <v>5</v>
@@ -5848,7 +5848,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5860,16 +5860,16 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K102" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5889,43 +5889,43 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L103" t="n">
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N103" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -5942,40 +5942,40 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
       </c>
       <c r="J104" t="n">
+        <v>16</v>
+      </c>
+      <c r="K104" t="n">
         <v>17</v>
       </c>
-      <c r="K104" t="n">
-        <v>18</v>
-      </c>
       <c r="L104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
@@ -5995,40 +5995,40 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
       </c>
       <c r="J105" t="n">
+        <v>17</v>
+      </c>
+      <c r="K105" t="n">
         <v>18</v>
       </c>
-      <c r="K105" t="n">
-        <v>19</v>
-      </c>
       <c r="L105" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M105" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6048,19 +6048,19 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106" t="n">
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -6069,19 +6069,19 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L106" t="n">
         <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6090,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6101,19 +6101,19 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D107" t="n">
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
@@ -6125,16 +6125,16 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" t="n">
         <v>19</v>
       </c>
       <c r="L107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M107" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -6154,19 +6154,19 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
         <v>9</v>
       </c>
-      <c r="E108" t="n">
-        <v>10</v>
-      </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -6178,16 +6178,16 @@
         <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K108" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M108" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -6207,40 +6207,40 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11</v>
+      </c>
+      <c r="F109" t="n">
+        <v>28</v>
+      </c>
+      <c r="G109" t="n">
         <v>9</v>
       </c>
-      <c r="E109" t="n">
-        <v>12</v>
-      </c>
-      <c r="F109" t="n">
-        <v>31</v>
-      </c>
-      <c r="G109" t="n">
-        <v>10</v>
-      </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M109" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6260,43 +6260,43 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
         <v>23</v>
       </c>
       <c r="K110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L110" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -6313,40 +6313,40 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C111" t="n">
+        <v>26</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
         <v>28</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12</v>
-      </c>
-      <c r="F111" t="n">
-        <v>30</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K111" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M111" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -6366,22 +6366,22 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>26</v>
+      </c>
+      <c r="G112" t="n">
         <v>8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>10</v>
-      </c>
-      <c r="F112" t="n">
-        <v>28</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -6390,16 +6390,16 @@
         <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K112" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M112" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N112" t="n">
         <v>4</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -6419,40 +6419,40 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M113" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6472,19 +6472,19 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6496,16 +6496,16 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L114" t="n">
         <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6525,10 +6525,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6537,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -6549,28 +6549,28 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K115" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M115" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
         <v>5</v>
       </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>6</v>
-      </c>
       <c r="Q115" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -6578,52 +6578,52 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" t="n">
+        <v>7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>33</v>
+      </c>
+      <c r="G116" t="n">
         <v>8</v>
       </c>
-      <c r="E116" t="n">
-        <v>11</v>
-      </c>
-      <c r="F116" t="n">
-        <v>35</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9</v>
-      </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J116" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K116" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -6631,52 +6631,52 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C117" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
+        <v>16</v>
+      </c>
+      <c r="F117" t="n">
+        <v>59</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7</v>
+      </c>
+      <c r="J117" t="n">
+        <v>28</v>
+      </c>
+      <c r="K117" t="n">
+        <v>42</v>
+      </c>
+      <c r="L117" t="n">
         <v>17</v>
       </c>
-      <c r="F117" t="n">
-        <v>63</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>30</v>
-      </c>
-      <c r="K117" t="n">
-        <v>45</v>
-      </c>
-      <c r="L117" t="n">
-        <v>18</v>
-      </c>
       <c r="M117" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N117" t="n">
         <v>5</v>
       </c>
       <c r="O117" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q117" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C118" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6711,25 +6711,25 @@
         <v>25</v>
       </c>
       <c r="K118" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L118" t="n">
         <v>14</v>
       </c>
       <c r="M118" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
       </c>
       <c r="O118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -6737,22 +6737,22 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>34</v>
+      </c>
+      <c r="G119" t="n">
         <v>7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>10</v>
-      </c>
-      <c r="F119" t="n">
-        <v>27</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -6761,16 +6761,16 @@
         <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K119" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
@@ -6779,10 +6779,10 @@
         <v>4</v>
       </c>
       <c r="P119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
         <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1546,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1599,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1705,22 +1705,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1758,28 +1758,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1808,16 +1808,16 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1861,25 +1861,25 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1967,22 +1967,22 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" t="n">
         <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>14</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -2023,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2073,19 +2073,19 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2138,19 +2138,19 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16</v>
+      </c>
+      <c r="G34" t="n">
         <v>7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>11</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -2288,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2341,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" t="n">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
-        <v>11</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7</v>
-      </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2500,22 +2500,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21</v>
+      </c>
+      <c r="G39" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>13</v>
-      </c>
-      <c r="F39" t="n">
-        <v>19</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6</v>
-      </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2553,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2659,19 +2659,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
@@ -2818,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -2977,22 +2977,22 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3030,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -3080,19 +3080,19 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3136,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3242,25 +3242,25 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3295,25 +3295,25 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>42</v>
+      </c>
+      <c r="G55" t="n">
         <v>13</v>
-      </c>
-      <c r="F55" t="n">
-        <v>40</v>
-      </c>
-      <c r="G55" t="n">
-        <v>12</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>39</v>
+      </c>
+      <c r="G57" t="n">
         <v>11</v>
-      </c>
-      <c r="F57" t="n">
-        <v>36</v>
-      </c>
-      <c r="G57" t="n">
-        <v>9</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3507,25 +3507,25 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3613,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3719,19 +3719,19 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -3772,19 +3772,19 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -3887,10 +3887,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3984,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4037,19 +4037,19 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4090,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4152,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4196,19 +4196,19 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -4249,28 +4249,28 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4355,28 +4355,28 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4405,22 +4405,22 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4479,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4514,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>32</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>34</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
         <v>29</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>31</v>
-      </c>
-      <c r="G77" t="n">
-        <v>4</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>27</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4567,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4673,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4694,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4726,16 +4726,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4779,31 +4779,31 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
       <c r="E82" t="n">
+        <v>8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27</v>
+      </c>
+      <c r="G82" t="n">
         <v>7</v>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
         <v>25</v>
       </c>
-      <c r="G82" t="n">
-        <v>6</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>23</v>
-      </c>
       <c r="K82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4832,16 +4832,16 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4850,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -4894,25 +4894,25 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K84" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4935,22 +4935,22 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -4959,13 +4959,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L85" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4988,10 +4988,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -5000,10 +5000,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5012,13 +5012,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5041,23 +5041,23 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>34</v>
+      </c>
+      <c r="G87" t="n">
         <v>9</v>
       </c>
-      <c r="F87" t="n">
-        <v>32</v>
-      </c>
-      <c r="G87" t="n">
-        <v>8</v>
-      </c>
       <c r="H87" t="n">
         <v>1</v>
       </c>
@@ -5065,13 +5065,13 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5094,19 +5094,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5147,19 +5147,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5168,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5200,19 +5200,19 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5224,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5253,40 +5253,40 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C91" t="n">
+        <v>23</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>22</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>21</v>
       </c>
-      <c r="D91" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>20</v>
-      </c>
-      <c r="G91" t="n">
-        <v>7</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>20</v>
-      </c>
       <c r="K91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,22 +5306,22 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -5330,16 +5330,16 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K92" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5359,19 +5359,19 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5380,19 +5380,19 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K93" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,22 +5412,22 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -5436,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5465,19 +5465,19 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5489,16 +5489,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K95" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5518,19 +5518,19 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5542,16 +5542,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K96" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M96" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5571,40 +5571,40 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
       </c>
       <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>23</v>
+      </c>
+      <c r="G97" t="n">
         <v>8</v>
       </c>
-      <c r="F97" t="n">
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
         <v>21</v>
       </c>
-      <c r="G97" t="n">
-        <v>7</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>19</v>
-      </c>
       <c r="K97" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L97" t="n">
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5624,19 +5624,19 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5648,16 +5648,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,19 +5677,19 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -5701,16 +5701,16 @@
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M99" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5754,16 +5754,16 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
+        <v>21</v>
+      </c>
+      <c r="K100" t="n">
         <v>19</v>
       </c>
-      <c r="K100" t="n">
-        <v>18</v>
-      </c>
       <c r="L100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M100" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" t="n">
+        <v>19</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>19</v>
+      </c>
+      <c r="K101" t="n">
         <v>18</v>
       </c>
-      <c r="G101" t="n">
-        <v>5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>18</v>
-      </c>
-      <c r="K101" t="n">
-        <v>17</v>
-      </c>
       <c r="L101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5836,19 +5836,19 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5860,16 +5860,16 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5889,19 +5889,19 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5910,22 +5910,22 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L103" t="n">
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -5942,19 +5942,19 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C104" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5966,16 +5966,16 @@
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5995,40 +5995,40 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C105" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K105" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6048,40 +6048,40 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C106" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D106" t="n">
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K106" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6090,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6101,22 +6101,22 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -6125,16 +6125,16 @@
         <v>8</v>
       </c>
       <c r="J107" t="n">
+        <v>21</v>
+      </c>
+      <c r="K107" t="n">
         <v>20</v>
       </c>
-      <c r="K107" t="n">
-        <v>19</v>
-      </c>
       <c r="L107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M107" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -6154,19 +6154,19 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -6178,16 +6178,16 @@
         <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K108" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6196,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -6207,40 +6207,40 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K109" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6260,43 +6260,43 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C110" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
+        <v>7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>24</v>
+      </c>
+      <c r="K110" t="n">
+        <v>22</v>
+      </c>
+      <c r="L110" t="n">
+        <v>17</v>
+      </c>
+      <c r="M110" t="n">
+        <v>34</v>
+      </c>
+      <c r="N110" t="n">
         <v>6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>23</v>
-      </c>
-      <c r="K110" t="n">
-        <v>21</v>
-      </c>
-      <c r="L110" t="n">
-        <v>16</v>
-      </c>
-      <c r="M110" t="n">
-        <v>32</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -6313,40 +6313,40 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K111" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -6366,22 +6366,22 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C112" t="n">
+        <v>30</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10</v>
+      </c>
+      <c r="F112" t="n">
         <v>28</v>
       </c>
-      <c r="D112" t="n">
-        <v>7</v>
-      </c>
-      <c r="E112" t="n">
+      <c r="G112" t="n">
         <v>9</v>
-      </c>
-      <c r="F112" t="n">
-        <v>26</v>
-      </c>
-      <c r="G112" t="n">
-        <v>8</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -6390,19 +6390,19 @@
         <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M112" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6419,40 +6419,40 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C113" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D113" t="n">
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M113" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6464,7 +6464,7 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -6472,19 +6472,19 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6496,16 +6496,16 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M114" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6525,10 +6525,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C115" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6537,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -6549,28 +6549,28 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M115" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -6578,52 +6578,52 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>17</v>
+      </c>
+      <c r="K116" t="n">
+        <v>23</v>
+      </c>
+      <c r="L116" t="n">
+        <v>13</v>
+      </c>
+      <c r="M116" t="n">
+        <v>26</v>
+      </c>
+      <c r="N116" t="n">
+        <v>5</v>
+      </c>
+      <c r="O116" t="n">
         <v>7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>10</v>
-      </c>
-      <c r="F116" t="n">
-        <v>33</v>
-      </c>
-      <c r="G116" t="n">
-        <v>8</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>16</v>
-      </c>
-      <c r="K116" t="n">
-        <v>21</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12</v>
-      </c>
-      <c r="M116" t="n">
-        <v>25</v>
-      </c>
-      <c r="N116" t="n">
-        <v>4</v>
-      </c>
-      <c r="O116" t="n">
-        <v>6</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -6631,52 +6631,52 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C117" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" t="n">
+        <v>18</v>
+      </c>
+      <c r="F117" t="n">
+        <v>64</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>30</v>
+      </c>
+      <c r="K117" t="n">
+        <v>46</v>
+      </c>
+      <c r="L117" t="n">
+        <v>18</v>
+      </c>
+      <c r="M117" t="n">
+        <v>38</v>
+      </c>
+      <c r="N117" t="n">
+        <v>6</v>
+      </c>
+      <c r="O117" t="n">
+        <v>11</v>
+      </c>
+      <c r="P117" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q117" t="n">
         <v>16</v>
-      </c>
-      <c r="F117" t="n">
-        <v>59</v>
-      </c>
-      <c r="G117" t="n">
-        <v>11</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>7</v>
-      </c>
-      <c r="J117" t="n">
-        <v>28</v>
-      </c>
-      <c r="K117" t="n">
-        <v>42</v>
-      </c>
-      <c r="L117" t="n">
-        <v>17</v>
-      </c>
-      <c r="M117" t="n">
-        <v>35</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5</v>
-      </c>
-      <c r="O117" t="n">
-        <v>9</v>
-      </c>
-      <c r="P117" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C118" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F118" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6708,28 +6708,28 @@
         <v>7</v>
       </c>
       <c r="J118" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K118" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M118" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
       </c>
       <c r="O118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q118" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -6737,52 +6737,105 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C119" t="n">
+        <v>56</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14</v>
+      </c>
+      <c r="E119" t="n">
+        <v>21</v>
+      </c>
+      <c r="F119" t="n">
+        <v>71</v>
+      </c>
+      <c r="G119" t="n">
+        <v>13</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7</v>
+      </c>
+      <c r="J119" t="n">
+        <v>28</v>
+      </c>
+      <c r="K119" t="n">
+        <v>45</v>
+      </c>
+      <c r="L119" t="n">
+        <v>14</v>
+      </c>
+      <c r="M119" t="n">
+        <v>32</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="n">
+        <v>6</v>
+      </c>
+      <c r="P119" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B120" t="n">
+        <v>78</v>
+      </c>
+      <c r="C120" t="n">
+        <v>41</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15</v>
+      </c>
+      <c r="F120" t="n">
+        <v>43</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20</v>
+      </c>
+      <c r="K120" t="n">
+        <v>33</v>
+      </c>
+      <c r="L120" t="n">
+        <v>15</v>
+      </c>
+      <c r="M120" t="n">
         <v>31</v>
       </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12</v>
-      </c>
-      <c r="F119" t="n">
-        <v>34</v>
-      </c>
-      <c r="G119" t="n">
+      <c r="N120" t="n">
+        <v>6</v>
+      </c>
+      <c r="O120" t="n">
+        <v>4</v>
+      </c>
+      <c r="P120" t="n">
         <v>7</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4</v>
-      </c>
-      <c r="J119" t="n">
-        <v>17</v>
-      </c>
-      <c r="K119" t="n">
-        <v>23</v>
-      </c>
-      <c r="L119" t="n">
-        <v>10</v>
-      </c>
-      <c r="M119" t="n">
-        <v>25</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5</v>
-      </c>
-      <c r="O119" t="n">
-        <v>4</v>
-      </c>
-      <c r="P119" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>13</v>
+      <c r="Q120" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
         <v>19</v>
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
         <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
         <v>13</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -1608,13 +1608,13 @@
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
         <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>11</v>
@@ -1661,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1861,7 +1861,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>51</v>
@@ -1873,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1967,25 +1967,25 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
         <v>7</v>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
         <v>8</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="n">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
         <v>7</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -2409,7 +2409,7 @@
         <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2662,7 +2662,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -2674,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
         <v>18</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
         <v>8</v>
@@ -2774,13 +2774,13 @@
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2818,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
         <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -3030,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -3080,16 +3080,16 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
         <v>30</v>
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3145,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3204,7 +3204,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>14</v>
@@ -3242,25 +3242,25 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
@@ -3304,7 +3304,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -3369,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
         <v>12</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3463,10 +3463,10 @@
         <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -3516,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -3613,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
@@ -3675,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
         <v>33</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3828,13 +3828,13 @@
         <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>4</v>
@@ -3940,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
@@ -4108,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>22</v>
@@ -4205,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>12</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
@@ -4264,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -4323,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
@@ -4364,7 +4364,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>32</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
         <v>31</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4523,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
@@ -4576,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4623,7 +4623,7 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
         <v>28</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
         <v>5</v>
@@ -4682,7 +4682,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4694,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4726,16 +4726,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4750,7 +4750,7 @@
         <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" t="n">
         <v>14</v>
@@ -4841,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>37</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -4894,19 +4894,19 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G84" t="n">
         <v>12</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
         <v>27</v>
@@ -4935,10 +4935,10 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4962,10 +4962,10 @@
         <v>41</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C86" t="n">
         <v>33</v>
@@ -5012,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K86" t="n">
         <v>24</v>
@@ -5041,19 +5041,19 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="n">
         <v>9</v>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K87" t="n">
         <v>21</v>
@@ -5094,19 +5094,19 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -5118,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>10</v>
@@ -5147,19 +5147,19 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -5174,7 +5174,7 @@
         <v>26</v>
       </c>
       <c r="K89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5200,10 +5200,10 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
         <v>5</v>
@@ -5212,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>25</v>
@@ -5233,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="M90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5253,22 +5253,22 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
       <c r="E91" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>21</v>
+      </c>
+      <c r="G91" t="n">
         <v>7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>22</v>
-      </c>
-      <c r="G91" t="n">
-        <v>8</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -5280,13 +5280,13 @@
         <v>21</v>
       </c>
       <c r="K91" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L91" t="n">
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
@@ -5315,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" t="n">
         <v>25</v>
@@ -5330,16 +5330,16 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L92" t="n">
         <v>11</v>
       </c>
       <c r="M92" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5359,10 +5359,10 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
@@ -5371,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5383,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K93" t="n">
         <v>25</v>
@@ -5412,10 +5412,10 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -5445,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="M94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" t="n">
         <v>22</v>
@@ -5477,7 +5477,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5492,13 +5492,13 @@
         <v>20</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L95" t="n">
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" t="n">
         <v>26</v>
@@ -5542,16 +5542,16 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K96" t="n">
         <v>26</v>
       </c>
       <c r="L96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M96" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5571,19 +5571,19 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5595,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L97" t="n">
         <v>10</v>
@@ -5624,10 +5624,10 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -5636,7 +5636,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K98" t="n">
         <v>20</v>
@@ -5657,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,19 +5677,19 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -5704,13 +5704,13 @@
         <v>21</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L99" t="n">
         <v>12</v>
       </c>
       <c r="M99" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C100" t="n">
         <v>23</v>
@@ -5742,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K100" t="n">
         <v>19</v>
@@ -5783,10 +5783,10 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -5801,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -5810,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L101" t="n">
         <v>11</v>
@@ -5836,19 +5836,19 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -5860,16 +5860,16 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K102" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L102" t="n">
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" t="n">
         <v>19</v>
@@ -5898,7 +5898,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
         <v>19</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
         <v>18</v>
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -5942,19 +5942,19 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5975,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="M104" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
@@ -5995,7 +5995,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" t="n">
         <v>20</v>
@@ -6028,7 +6028,7 @@
         <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N105" t="n">
         <v>6</v>
@@ -6048,10 +6048,10 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
         <v>7</v>
@@ -6063,13 +6063,13 @@
         <v>23</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
         <v>22</v>
@@ -6078,10 +6078,10 @@
         <v>20</v>
       </c>
       <c r="L106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6090,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6101,22 +6101,22 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -6128,13 +6128,13 @@
         <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M107" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6154,7 +6154,7 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C108" t="n">
         <v>29</v>
@@ -6178,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K108" t="n">
         <v>27</v>
@@ -6199,7 +6199,7 @@
         <v>13</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -6207,19 +6207,19 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C109" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -6234,13 +6234,13 @@
         <v>22</v>
       </c>
       <c r="K109" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L109" t="n">
         <v>12</v>
       </c>
       <c r="M109" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N109" t="n">
         <v>6</v>
@@ -6260,22 +6260,22 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K110" t="n">
         <v>22</v>
@@ -6299,7 +6299,7 @@
         <v>6</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>10</v>
@@ -6313,7 +6313,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" t="n">
         <v>28</v>
@@ -6325,19 +6325,19 @@
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K111" t="n">
         <v>22</v>
@@ -6369,7 +6369,7 @@
         <v>80</v>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         <v>28</v>
       </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -6396,10 +6396,10 @@
         <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M112" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N112" t="n">
         <v>5</v>
@@ -6419,7 +6419,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C113" t="n">
         <v>28</v>
@@ -6428,10 +6428,10 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -6452,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="M113" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N113" t="n">
         <v>4</v>
@@ -6464,7 +6464,7 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -6472,19 +6472,19 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6496,16 +6496,16 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K114" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6525,10 +6525,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C115" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6537,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K115" t="n">
         <v>22</v>
@@ -6558,7 +6558,7 @@
         <v>13</v>
       </c>
       <c r="M115" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N115" t="n">
         <v>5</v>
@@ -6570,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="Q115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -6581,13 +6581,13 @@
         <v>62</v>
       </c>
       <c r="C116" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="n">
         <v>35</v>
@@ -6605,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="K116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L116" t="n">
         <v>13</v>
@@ -6614,10 +6614,10 @@
         <v>26</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P116" t="n">
         <v>6</v>
@@ -6631,19 +6631,19 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G117" t="n">
         <v>12</v>
@@ -6658,7 +6658,7 @@
         <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
@@ -6670,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="O117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P117" t="n">
         <v>7</v>
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C118" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D118" t="n">
         <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6708,16 +6708,16 @@
         <v>7</v>
       </c>
       <c r="J118" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K118" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L118" t="n">
         <v>15</v>
       </c>
       <c r="M118" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6737,10 +6737,10 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C119" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D119" t="n">
         <v>14</v>
@@ -6749,10 +6749,10 @@
         <v>21</v>
       </c>
       <c r="F119" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" t="n">
         <v>2</v>
@@ -6761,16 +6761,16 @@
         <v>7</v>
       </c>
       <c r="J119" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K119" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L119" t="n">
         <v>14</v>
       </c>
       <c r="M119" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N119" t="n">
         <v>6</v>
@@ -6782,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="Q119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -6790,40 +6790,40 @@
         <v>45991</v>
       </c>
       <c r="B120" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C120" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D120" t="n">
         <v>11</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H120" t="n">
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J120" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K120" t="n">
+        <v>37</v>
+      </c>
+      <c r="L120" t="n">
+        <v>17</v>
+      </c>
+      <c r="M120" t="n">
         <v>33</v>
-      </c>
-      <c r="L120" t="n">
-        <v>15</v>
-      </c>
-      <c r="M120" t="n">
-        <v>31</v>
       </c>
       <c r="N120" t="n">
         <v>6</v>
@@ -6832,10 +6832,63 @@
         <v>4</v>
       </c>
       <c r="P120" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B121" t="n">
+        <v>70</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30</v>
+      </c>
+      <c r="D121" t="n">
         <v>7</v>
       </c>
-      <c r="Q120" t="n">
-        <v>15</v>
+      <c r="E121" t="n">
+        <v>11</v>
+      </c>
+      <c r="F121" t="n">
+        <v>44</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>24</v>
+      </c>
+      <c r="K121" t="n">
+        <v>23</v>
+      </c>
+      <c r="L121" t="n">
+        <v>14</v>
+      </c>
+      <c r="M121" t="n">
+        <v>28</v>
+      </c>
+      <c r="N121" t="n">
+        <v>6</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5</v>
+      </c>
+      <c r="P121" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,10 +542,10 @@
         <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>58</v>
       </c>
       <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>19</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
         <v>17</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>11</v>
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
@@ -1717,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1758,22 +1758,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1814,19 +1814,19 @@
         <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
         <v>18</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
         <v>16</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2350,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
         <v>8</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>9</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2500,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
@@ -2612,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
         <v>18</v>
@@ -2656,22 +2656,22 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -2830,10 +2830,10 @@
         <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -2983,16 +2983,16 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -3092,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3145,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
@@ -3307,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" t="n">
         <v>13</v>
@@ -3516,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
@@ -3569,7 +3569,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3622,10 +3622,10 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>53</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11</v>
+      </c>
+      <c r="F61" t="n">
         <v>54</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12</v>
-      </c>
-      <c r="F61" t="n">
-        <v>55</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3769,10 +3769,10 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3984,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4046,7 +4046,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4090,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>22</v>
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
         <v>24</v>
@@ -4264,10 +4264,10 @@
         <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>14</v>
@@ -4326,7 +4326,7 @@
         <v>13</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>38</v>
@@ -4370,13 +4370,13 @@
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4405,10 +4405,10 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4482,10 +4482,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4638,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4679,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>32</v>
@@ -4735,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4779,16 +4779,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>24</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4841,13 +4841,13 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4903,16 +4903,16 @@
         <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>50</v>
       </c>
       <c r="K84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L84" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85" t="n">
         <v>34</v>
@@ -4947,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K85" t="n">
         <v>24</v>
@@ -4988,10 +4988,10 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
@@ -5000,10 +5000,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5012,10 +5012,10 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L86" t="n">
         <v>14</v>
@@ -5041,7 +5041,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" t="n">
         <v>32</v>
@@ -5094,13 +5094,13 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C88" t="n">
         <v>26</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -5171,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K89" t="n">
         <v>18</v>
@@ -5221,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K90" t="n">
         <v>18</v>
@@ -5309,7 +5309,7 @@
         <v>48</v>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5318,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="L92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M92" t="n">
         <v>30</v>
@@ -5362,7 +5362,7 @@
         <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
@@ -5386,13 +5386,13 @@
         <v>24</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L93" t="n">
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
         <v>23</v>
@@ -5424,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5439,7 +5439,7 @@
         <v>23</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>11</v>
@@ -5477,7 +5477,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
         <v>19</v>
@@ -5527,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>27</v>
@@ -5551,7 +5551,7 @@
         <v>11</v>
       </c>
       <c r="M96" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5571,13 +5571,13 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" t="n">
         <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -5586,7 +5586,7 @@
         <v>22</v>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5604,10 +5604,10 @@
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
         <v>25</v>
@@ -5657,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5698,10 +5698,10 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K99" t="n">
         <v>22</v>
@@ -5733,7 +5733,7 @@
         <v>68</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -5757,7 +5757,7 @@
         <v>20</v>
       </c>
       <c r="K100" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L100" t="n">
         <v>12</v>
@@ -5801,13 +5801,13 @@
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K101" t="n">
         <v>17</v>
@@ -5816,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K102" t="n">
         <v>16</v>
@@ -5889,40 +5889,40 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L103" t="n">
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N103" t="n">
         <v>23</v>
@@ -5945,13 +5945,13 @@
         <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" t="n">
         <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
         <v>19</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -5995,10 +5995,10 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" t="n">
         <v>5</v>
@@ -6016,13 +6016,13 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
         <v>18</v>
       </c>
       <c r="K105" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L105" t="n">
         <v>10</v>
@@ -6069,13 +6069,13 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J106" t="n">
         <v>22</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L106" t="n">
         <v>11</v>
@@ -6119,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -6154,19 +6154,19 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -6187,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="M108" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6207,13 +6207,13 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C109" t="n">
         <v>30</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
         <v>12</v>
@@ -6234,7 +6234,7 @@
         <v>22</v>
       </c>
       <c r="K109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L109" t="n">
         <v>12</v>
@@ -6260,28 +6260,28 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C110" t="n">
         <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
         <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
         <v>23</v>
@@ -6293,13 +6293,13 @@
         <v>17</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N110" t="n">
         <v>6</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>10</v>
@@ -6316,10 +6316,10 @@
         <v>83</v>
       </c>
       <c r="C111" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>12</v>
@@ -6331,7 +6331,7 @@
         <v>8</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -6340,13 +6340,13 @@
         <v>22</v>
       </c>
       <c r="K111" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L111" t="n">
         <v>14</v>
       </c>
       <c r="M111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N111" t="n">
         <v>7</v>
@@ -6366,7 +6366,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" t="n">
         <v>29</v>
@@ -6387,22 +6387,22 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K112" t="n">
         <v>19</v>
       </c>
       <c r="L112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M112" t="n">
         <v>27</v>
       </c>
       <c r="N112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" t="n">
         <v>28</v>
@@ -6484,7 +6484,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114" t="n">
         <v>8</v>
@@ -6496,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K114" t="n">
         <v>22</v>
@@ -6525,10 +6525,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6537,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -6552,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="K115" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L115" t="n">
         <v>13</v>
@@ -6561,7 +6561,7 @@
         <v>24</v>
       </c>
       <c r="N115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" t="n">
         <v>29</v>
@@ -6590,19 +6590,19 @@
         <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="n">
         <v>9</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K116" t="n">
         <v>22</v>
@@ -6611,7 +6611,7 @@
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
@@ -6631,10 +6631,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C117" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
@@ -6646,16 +6646,16 @@
         <v>62</v>
       </c>
       <c r="G117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K117" t="n">
         <v>44</v>
@@ -6664,10 +6664,10 @@
         <v>18</v>
       </c>
       <c r="M117" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O117" t="n">
         <v>10</v>
@@ -6676,7 +6676,7 @@
         <v>7</v>
       </c>
       <c r="Q117" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -6684,19 +6684,19 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C118" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
         <v>18</v>
       </c>
       <c r="F118" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -6714,10 +6714,10 @@
         <v>42</v>
       </c>
       <c r="L118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6726,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="P118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="n">
         <v>15</v>
@@ -6737,16 +6737,16 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C119" t="n">
         <v>54</v>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F119" t="n">
         <v>69</v>
@@ -6764,7 +6764,7 @@
         <v>27</v>
       </c>
       <c r="K119" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L119" t="n">
         <v>14</v>
@@ -6790,46 +6790,46 @@
         <v>45991</v>
       </c>
       <c r="B120" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C120" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F120" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G120" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J120" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K120" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L120" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M120" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N120" t="n">
         <v>6</v>
       </c>
       <c r="O120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P120" t="n">
         <v>9</v>
@@ -6843,52 +6843,105 @@
         <v>46022</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C121" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F121" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>6</v>
       </c>
       <c r="J121" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K121" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L121" t="n">
         <v>14</v>
       </c>
       <c r="M121" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N121" t="n">
         <v>6</v>
       </c>
       <c r="O121" t="n">
+        <v>8</v>
+      </c>
+      <c r="P121" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B122" t="n">
+        <v>56</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12</v>
+      </c>
+      <c r="F122" t="n">
+        <v>34</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
         <v>5</v>
       </c>
-      <c r="P121" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>24</v>
+      <c r="J122" t="n">
+        <v>15</v>
+      </c>
+      <c r="K122" t="n">
+        <v>19</v>
+      </c>
+      <c r="L122" t="n">
+        <v>10</v>
+      </c>
+      <c r="M122" t="n">
+        <v>23</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="n">
+        <v>5</v>
+      </c>
+      <c r="P122" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/fractal_trends_monthly.xlsx
+++ b/data/fractal_trends_monthly.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -748,13 +748,13 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
         <v>17</v>
@@ -1075,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="n">
         <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
         <v>17</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1331,16 +1331,16 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
@@ -1761,13 +1761,13 @@
         <v>74</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
@@ -1826,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -2076,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
         <v>18</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
         <v>16</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
         <v>9</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
         <v>8</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2500,22 +2500,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2553,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
         <v>21</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2656,7 +2656,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>32</v>
@@ -2668,13 +2668,13 @@
         <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2771,10 +2771,10 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
         <v>8</v>
@@ -2833,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" t="n">
         <v>8</v>
@@ -3145,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
@@ -3260,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -3357,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G55" t="n">
         <v>13</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
@@ -3516,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>11</v>
       </c>
       <c r="F60" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
         <v>9</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61" t="n">
         <v>7</v>
@@ -3675,7 +3675,7 @@
         <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3737,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3984,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
         <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>22</v>
@@ -4049,7 +4049,7 @@
         <v>27</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -4096,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>28</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
         <v>4</v>
@@ -4205,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>12</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D72" t="n">
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>24</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>14</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
@@ -4314,7 +4314,7 @@
         <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -4355,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
         <v>38</v>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
@@ -4429,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>30</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
@@ -4629,19 +4629,19 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" t="n">
         <v>6</v>
@@ -4735,10 +4735,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -4788,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>5</v>
@@ -4841,22 +4841,22 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -4897,13 +4897,13 @@
         <v>42</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>50</v>
@@ -4912,7 +4912,7 @@
         <v>26</v>
       </c>
       <c r="L84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C85" t="n">
         <v>34</v>
@@ -4947,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
         <v>24</v>
@@ -4988,7 +4988,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
         <v>32</v>
@@ -5003,7 +5003,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -5041,16 +5041,16 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
         <v>33</v>
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>11</v>
@@ -5094,7 +5094,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C88" t="n">
         <v>26</v>
@@ -5171,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L89" t="n">
         <v>10</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K90" t="n">
         <v>18</v>
@@ -5309,7 +5309,7 @@
         <v>48</v>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5318,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="L92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M92" t="n">
         <v>30</v>
@@ -5362,16 +5362,16 @@
         <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>24</v>
@@ -5392,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
         <v>23</v>
@@ -5424,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -5477,7 +5477,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -5542,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K96" t="n">
         <v>26</v>
       </c>
       <c r="L96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M96" t="n">
         <v>25</v>
@@ -5571,7 +5571,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
         <v>23</v>
@@ -5583,10 +5583,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -5604,10 +5604,10 @@
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
         <v>25</v>
@@ -5648,16 +5648,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" t="n">
         <v>26</v>
@@ -5698,10 +5698,10 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K99" t="n">
         <v>22</v>
@@ -5710,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="M99" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -5742,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5754,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K100" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L100" t="n">
         <v>12</v>
@@ -5795,19 +5795,19 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K101" t="n">
         <v>17</v>
@@ -5816,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="M101" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -5889,19 +5889,19 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5913,16 +5913,16 @@
         <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L103" t="n">
         <v>12</v>
       </c>
       <c r="M103" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N103" t="n">
         <v>23</v>
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -5942,16 +5942,16 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" t="n">
         <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
         <v>19</v>
@@ -5960,13 +5960,13 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K104" t="n">
         <v>18</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5998,13 +5998,13 @@
         <v>56</v>
       </c>
       <c r="C105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
         <v>20</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
         <v>18</v>
@@ -6060,7 +6060,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -6069,13 +6069,13 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
         <v>22</v>
       </c>
       <c r="K106" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L106" t="n">
         <v>11</v>
@@ -6093,7 +6093,7 @@
         <v>16</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6101,7 +6101,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>24</v>
@@ -6113,13 +6113,13 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -6128,13 +6128,13 @@
         <v>21</v>
       </c>
       <c r="K107" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M107" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6154,10 +6154,10 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>8</v>
@@ -6166,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -6178,16 +6178,16 @@
         <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K108" t="n">
         <v>27</v>
       </c>
       <c r="L108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M108" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6207,7 +6207,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
         <v>30</v>
@@ -6266,13 +6266,13 @@
         <v>31</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -6290,7 +6290,7 @@
         <v>22</v>
       </c>
       <c r="L110" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M110" t="n">
         <v>33</v>
@@ -6313,7 +6313,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C111" t="n">
         <v>27</v>
@@ -6325,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
@@ -6366,7 +6366,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C112" t="n">
         <v>29</v>
@@ -6378,7 +6378,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G112" t="n">
         <v>8</v>
@@ -6390,7 +6390,7 @@
         <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" t="n">
         <v>19</v>
@@ -6399,10 +6399,10 @@
         <v>14</v>
       </c>
       <c r="M112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -6419,7 +6419,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C113" t="n">
         <v>28</v>
@@ -6431,13 +6431,13 @@
         <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
@@ -6472,7 +6472,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C114" t="n">
         <v>28</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q114" t="n">
         <v>2</v>
@@ -6525,10 +6525,10 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C115" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K115" t="n">
         <v>21</v>
@@ -6561,7 +6561,7 @@
         <v>24</v>
       </c>
       <c r="N115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6596,13 +6596,13 @@
         <v>9</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K116" t="n">
         <v>22</v>
@@ -6611,7 +6611,7 @@
         <v>13</v>
       </c>
       <c r="M116" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
@@ -6631,10 +6631,10 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C117" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D117" t="n">
         <v>14</v>
@@ -6643,10 +6643,10 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
@@ -6655,10 +6655,10 @@
         <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K117" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L117" t="n">
         <v>18</v>
@@ -6676,7 +6676,7 @@
         <v>7</v>
       </c>
       <c r="Q117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -6684,7 +6684,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C118" t="n">
         <v>54</v>
@@ -6717,7 +6717,7 @@
         <v>14</v>
       </c>
       <c r="M118" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N118" t="n">
         <v>6</v>
@@ -6737,13 +6737,13 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C119" t="n">
         <v>54</v>
       </c>
       <c r="D119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
         <v>20</v>
@@ -6764,7 +6764,7 @@
         <v>27</v>
       </c>
       <c r="K119" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L119" t="n">
         <v>14</v>
@@ -6790,16 +6790,16 @@
         <v>45991</v>
       </c>
       <c r="B120" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C120" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D120" t="n">
         <v>13</v>
       </c>
       <c r="E120" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F120" t="n">
         <v>69</v>
@@ -6817,13 +6817,13 @@
         <v>26</v>
       </c>
       <c r="K120" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L120" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M120" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N120" t="n">
         <v>6</v>
@@ -6843,16 +6843,16 @@
         <v>46022</v>
       </c>
       <c r="B121" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C121" t="n">
         <v>43</v>
       </c>
       <c r="D121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F121" t="n">
         <v>61</v>
@@ -6885,7 +6885,7 @@
         <v>8</v>
       </c>
       <c r="P121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q121" t="n">
         <v>17</v>
@@ -6896,22 +6896,22 @@
         <v>46053</v>
       </c>
       <c r="B122" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F122" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H122" t="n">
         <v>2</v>
@@ -6920,28 +6920,81 @@
         <v>5</v>
       </c>
       <c r="J122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K122" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L122" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M122" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
       </c>
       <c r="O122" t="n">
+        <v>6</v>
+      </c>
+      <c r="P122" t="n">
         <v>5</v>
-      </c>
-      <c r="P122" t="n">
-        <v>4</v>
       </c>
       <c r="Q122" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="B123" t="n">
+        <v>49</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>27</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12</v>
+      </c>
+      <c r="K123" t="n">
+        <v>17</v>
+      </c>
+      <c r="L123" t="n">
+        <v>10</v>
+      </c>
+      <c r="M123" t="n">
+        <v>18</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="n">
+        <v>3</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
